--- a/data/pca/factorExposure/factorExposure_2010-02-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-12.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.006152256808288501</v>
+        <v>0.01702475400058831</v>
       </c>
       <c r="C2">
-        <v>-0.01451670686023549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.0009412004089546231</v>
+      </c>
+      <c r="D2">
+        <v>-0.007123643123334169</v>
+      </c>
+      <c r="E2">
+        <v>-0.0001874479337300346</v>
+      </c>
+      <c r="F2">
+        <v>-0.008851104684950321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03336188583921566</v>
+        <v>0.09383197233747284</v>
       </c>
       <c r="C4">
-        <v>-0.1229454989911468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01555305193935869</v>
+      </c>
+      <c r="D4">
+        <v>-0.08317093793192264</v>
+      </c>
+      <c r="E4">
+        <v>0.02956851558669676</v>
+      </c>
+      <c r="F4">
+        <v>0.02813703169276092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04415423596448427</v>
+        <v>0.1564730922930107</v>
       </c>
       <c r="C6">
-        <v>-0.1085869920112498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02490881677087146</v>
+      </c>
+      <c r="D6">
+        <v>0.02244971318146691</v>
+      </c>
+      <c r="E6">
+        <v>0.01085082754822554</v>
+      </c>
+      <c r="F6">
+        <v>0.05209932410338748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.008884621888207135</v>
+        <v>0.0597706285764215</v>
       </c>
       <c r="C7">
-        <v>-0.07272080266032732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0009792588496944578</v>
+      </c>
+      <c r="D7">
+        <v>-0.05174410563209024</v>
+      </c>
+      <c r="E7">
+        <v>0.0133008139449421</v>
+      </c>
+      <c r="F7">
+        <v>0.04393308159931388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.007240225787456581</v>
+        <v>0.0585242807020083</v>
       </c>
       <c r="C8">
-        <v>-0.05447192584271943</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01364389464472715</v>
+      </c>
+      <c r="D8">
+        <v>-0.03186294503508037</v>
+      </c>
+      <c r="E8">
+        <v>0.01519968783828863</v>
+      </c>
+      <c r="F8">
+        <v>-0.03236874154513943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02867642763809481</v>
+        <v>0.0718070423750468</v>
       </c>
       <c r="C9">
-        <v>-0.09544110108854018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01145482668165782</v>
+      </c>
+      <c r="D9">
+        <v>-0.08430197894316258</v>
+      </c>
+      <c r="E9">
+        <v>0.02406653360301973</v>
+      </c>
+      <c r="F9">
+        <v>0.0477417816634256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.005562821664714405</v>
+        <v>0.0953704246103398</v>
       </c>
       <c r="C10">
-        <v>-0.05454133856153583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.0186835791743811</v>
+      </c>
+      <c r="D10">
+        <v>0.1697606635143233</v>
+      </c>
+      <c r="E10">
+        <v>-0.03997580319663626</v>
+      </c>
+      <c r="F10">
+        <v>-0.05872506776157497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03113412834207943</v>
+        <v>0.08770620908836467</v>
       </c>
       <c r="C11">
-        <v>-0.1005281279112275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01103804126254123</v>
+      </c>
+      <c r="D11">
+        <v>-0.1172224617415545</v>
+      </c>
+      <c r="E11">
+        <v>0.04796068720743197</v>
+      </c>
+      <c r="F11">
+        <v>0.01836413012063734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02829376100544296</v>
+        <v>0.09234758844071218</v>
       </c>
       <c r="C12">
-        <v>-0.1093177790438455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.00844363276736235</v>
+      </c>
+      <c r="D12">
+        <v>-0.1288121774649111</v>
+      </c>
+      <c r="E12">
+        <v>0.04851722504118544</v>
+      </c>
+      <c r="F12">
+        <v>0.01657918287509716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.008367012397876244</v>
+        <v>0.04352226796357696</v>
       </c>
       <c r="C13">
-        <v>-0.04181113672512201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003888733249485731</v>
+      </c>
+      <c r="D13">
+        <v>-0.04792038123502038</v>
+      </c>
+      <c r="E13">
+        <v>-0.01262891768274627</v>
+      </c>
+      <c r="F13">
+        <v>0.006654256893356669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01465457270749188</v>
+        <v>0.02246665614746959</v>
       </c>
       <c r="C14">
-        <v>-0.02436694960753094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01393953712707318</v>
+      </c>
+      <c r="D14">
+        <v>-0.033306194283928</v>
+      </c>
+      <c r="E14">
+        <v>0.0168330655956527</v>
+      </c>
+      <c r="F14">
+        <v>0.01634716902150312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01244316905683969</v>
+        <v>0.03111289745402256</v>
       </c>
       <c r="C15">
-        <v>-0.02312021528194127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005128435919446095</v>
+      </c>
+      <c r="D15">
+        <v>-0.04507203100852967</v>
+      </c>
+      <c r="E15">
+        <v>0.007529589537252556</v>
+      </c>
+      <c r="F15">
+        <v>0.02680811326284035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0188280698147111</v>
+        <v>0.0732577946317247</v>
       </c>
       <c r="C16">
-        <v>-0.1086665960128855</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002017209844571074</v>
+      </c>
+      <c r="D16">
+        <v>-0.1261899994706572</v>
+      </c>
+      <c r="E16">
+        <v>0.06341528161127559</v>
+      </c>
+      <c r="F16">
+        <v>0.01996650447718292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0263351962075033</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003678238024451748</v>
+      </c>
+      <c r="D18">
+        <v>-0.02154272987220079</v>
+      </c>
+      <c r="E18">
+        <v>-0.005331233918698626</v>
+      </c>
+      <c r="F18">
+        <v>-0.01351906891338816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01462785596972649</v>
+        <v>0.06001030050947139</v>
       </c>
       <c r="C20">
-        <v>-0.06260882424436216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0004420465623233266</v>
+      </c>
+      <c r="D20">
+        <v>-0.07700663983947446</v>
+      </c>
+      <c r="E20">
+        <v>0.05573388706437661</v>
+      </c>
+      <c r="F20">
+        <v>0.02304626795536611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01164320596347639</v>
+        <v>0.03901303936562699</v>
       </c>
       <c r="C21">
-        <v>-0.02127697230371965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006501890595723904</v>
+      </c>
+      <c r="D21">
+        <v>-0.03614855395995252</v>
+      </c>
+      <c r="E21">
+        <v>-0.008267498114040948</v>
+      </c>
+      <c r="F21">
+        <v>-0.02257765869576183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.002223339312581959</v>
+        <v>0.04465406160627807</v>
       </c>
       <c r="C22">
-        <v>-0.0372216700328144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.000588262914196029</v>
+      </c>
+      <c r="D22">
+        <v>-0.003977624904959327</v>
+      </c>
+      <c r="E22">
+        <v>0.02462522655716773</v>
+      </c>
+      <c r="F22">
+        <v>-0.01361591129258441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.002249202844402815</v>
+        <v>0.04468768516357388</v>
       </c>
       <c r="C23">
-        <v>-0.03733165770946484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0006088024667084825</v>
+      </c>
+      <c r="D23">
+        <v>-0.004069331171879938</v>
+      </c>
+      <c r="E23">
+        <v>0.02493264055032039</v>
+      </c>
+      <c r="F23">
+        <v>-0.01309161507249184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02112708810681814</v>
+        <v>0.0795682219315005</v>
       </c>
       <c r="C24">
-        <v>-0.1073806741420904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.002682092996608291</v>
+      </c>
+      <c r="D24">
+        <v>-0.1203525304329131</v>
+      </c>
+      <c r="E24">
+        <v>0.05155621036561332</v>
+      </c>
+      <c r="F24">
+        <v>0.02104644975913244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02562261763753619</v>
+        <v>0.08503204569651077</v>
       </c>
       <c r="C25">
-        <v>-0.1122298167233421</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.004894768798926772</v>
+      </c>
+      <c r="D25">
+        <v>-0.1092544497732085</v>
+      </c>
+      <c r="E25">
+        <v>0.03417568343781668</v>
+      </c>
+      <c r="F25">
+        <v>0.02369906486857466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02303895316909262</v>
+        <v>0.05597809115736285</v>
       </c>
       <c r="C26">
-        <v>-0.0440127946612944</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01445175580389011</v>
+      </c>
+      <c r="D26">
+        <v>-0.04177143769581696</v>
+      </c>
+      <c r="E26">
+        <v>0.02644724431740442</v>
+      </c>
+      <c r="F26">
+        <v>-0.01088117210862478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.005157740419450412</v>
+        <v>0.1425402299257878</v>
       </c>
       <c r="C28">
-        <v>-0.04254934548922444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.01815611111057328</v>
+      </c>
+      <c r="D28">
+        <v>0.2642408745731695</v>
+      </c>
+      <c r="E28">
+        <v>-0.07028893520502297</v>
+      </c>
+      <c r="F28">
+        <v>0.01664323781858165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01570608865882956</v>
+        <v>0.02658443200367464</v>
       </c>
       <c r="C29">
-        <v>-0.02774349880002662</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008112615570599337</v>
+      </c>
+      <c r="D29">
+        <v>-0.03307838582977355</v>
+      </c>
+      <c r="E29">
+        <v>0.01077725501758032</v>
+      </c>
+      <c r="F29">
+        <v>-0.01344020410521562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0214406311797025</v>
+        <v>0.06166708093936715</v>
       </c>
       <c r="C30">
-        <v>-0.1246142720751713</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004295607368843121</v>
+      </c>
+      <c r="D30">
+        <v>-0.08615454913999962</v>
+      </c>
+      <c r="E30">
+        <v>0.02314031123286614</v>
+      </c>
+      <c r="F30">
+        <v>0.08938023478250832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02495663868329437</v>
+        <v>0.04921233993311646</v>
       </c>
       <c r="C31">
-        <v>-0.03027286272668534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01507287985951968</v>
+      </c>
+      <c r="D31">
+        <v>-0.02552968269897468</v>
+      </c>
+      <c r="E31">
+        <v>0.02731686606677102</v>
+      </c>
+      <c r="F31">
+        <v>-0.005581676206883898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01128320468508565</v>
+        <v>0.04877289868900018</v>
       </c>
       <c r="C32">
-        <v>-0.06017443129414704</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001275922356310391</v>
+      </c>
+      <c r="D32">
+        <v>-0.03648569368160824</v>
+      </c>
+      <c r="E32">
+        <v>0.03006918205572539</v>
+      </c>
+      <c r="F32">
+        <v>-7.447962689659283e-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02744834957051259</v>
+        <v>0.08939747866491914</v>
       </c>
       <c r="C33">
-        <v>-0.1112511746159778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008231894126518507</v>
+      </c>
+      <c r="D33">
+        <v>-0.09810265697465936</v>
+      </c>
+      <c r="E33">
+        <v>0.04619132334442085</v>
+      </c>
+      <c r="F33">
+        <v>0.03675127725968216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02960613079668744</v>
+        <v>0.06801078674628762</v>
       </c>
       <c r="C34">
-        <v>-0.09021101041766916</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.0114690260623886</v>
+      </c>
+      <c r="D34">
+        <v>-0.1057353398088928</v>
+      </c>
+      <c r="E34">
+        <v>0.03647859564915808</v>
+      </c>
+      <c r="F34">
+        <v>0.03250507305351287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003530088925785243</v>
+        <v>0.02434663825164711</v>
       </c>
       <c r="C35">
-        <v>-0.0138783847990315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002395096974420354</v>
+      </c>
+      <c r="D35">
+        <v>-0.01255467963222334</v>
+      </c>
+      <c r="E35">
+        <v>0.01091602385338633</v>
+      </c>
+      <c r="F35">
+        <v>0.005997770616127609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01145650050379022</v>
+        <v>0.02495391541296465</v>
       </c>
       <c r="C36">
-        <v>-0.02733058375578513</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007290892077570544</v>
+      </c>
+      <c r="D36">
+        <v>-0.03973158249600245</v>
+      </c>
+      <c r="E36">
+        <v>0.01668708426310144</v>
+      </c>
+      <c r="F36">
+        <v>0.01241328703658293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0008250110032329714</v>
+        <v>0.001462156328078749</v>
       </c>
       <c r="C38">
-        <v>-0.0053987554741221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.00021368580687733</v>
+      </c>
+      <c r="D38">
+        <v>-0.0007518351718321603</v>
+      </c>
+      <c r="E38">
+        <v>0.001113501968039688</v>
+      </c>
+      <c r="F38">
+        <v>-0.000987426420416943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04498328239233046</v>
+        <v>0.1070883682353223</v>
       </c>
       <c r="C39">
-        <v>-0.1662945050749886</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01645937882330713</v>
+      </c>
+      <c r="D39">
+        <v>-0.1529632233163811</v>
+      </c>
+      <c r="E39">
+        <v>0.0609585312637103</v>
+      </c>
+      <c r="F39">
+        <v>0.02196963983208826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009066441873667667</v>
+        <v>0.03806867143624398</v>
       </c>
       <c r="C40">
-        <v>-0.009747566557383094</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007044466365896596</v>
+      </c>
+      <c r="D40">
+        <v>-0.03286965218958911</v>
+      </c>
+      <c r="E40">
+        <v>0.001706201607939652</v>
+      </c>
+      <c r="F40">
+        <v>-0.01591182315189283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01393135465871576</v>
+        <v>0.02665444834748664</v>
       </c>
       <c r="C41">
-        <v>-0.01954333232760375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006540008456697269</v>
+      </c>
+      <c r="D41">
+        <v>-0.01085922236543076</v>
+      </c>
+      <c r="E41">
+        <v>0.01222694495626324</v>
+      </c>
+      <c r="F41">
+        <v>-0.008412755967923544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01333704066335581</v>
+        <v>0.040039288737762</v>
       </c>
       <c r="C43">
-        <v>-0.02593359348747895</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006565652722173643</v>
+      </c>
+      <c r="D43">
+        <v>-0.02059461054280355</v>
+      </c>
+      <c r="E43">
+        <v>0.02357041231400487</v>
+      </c>
+      <c r="F43">
+        <v>-0.01406402868996374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03931557148693842</v>
+        <v>0.07681842076944831</v>
       </c>
       <c r="C44">
-        <v>-0.1333305820677902</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02077098195821496</v>
+      </c>
+      <c r="D44">
+        <v>-0.09891297852121152</v>
+      </c>
+      <c r="E44">
+        <v>0.07367704249464521</v>
+      </c>
+      <c r="F44">
+        <v>0.1664504537146699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.004445173649360186</v>
+        <v>0.02371726600508759</v>
       </c>
       <c r="C46">
-        <v>-0.01211172086603685</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003789702501596563</v>
+      </c>
+      <c r="D46">
+        <v>-0.01274039446092892</v>
+      </c>
+      <c r="E46">
+        <v>0.02153782300016592</v>
+      </c>
+      <c r="F46">
+        <v>-0.0003597203015129227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0161296267415039</v>
+        <v>0.05075711861941413</v>
       </c>
       <c r="C47">
-        <v>-0.04279298556767937</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003335727191403562</v>
+      </c>
+      <c r="D47">
+        <v>-0.01342850126117155</v>
+      </c>
+      <c r="E47">
+        <v>0.02193072023872367</v>
+      </c>
+      <c r="F47">
+        <v>-0.03903046724325184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01379072215668614</v>
+        <v>0.04822134171478594</v>
       </c>
       <c r="C48">
-        <v>-0.04567252037642303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.002466037962339435</v>
+      </c>
+      <c r="D48">
+        <v>-0.05087777683632624</v>
+      </c>
+      <c r="E48">
+        <v>-0.004976982349078568</v>
+      </c>
+      <c r="F48">
+        <v>0.003655307718919012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.04313209327245623</v>
+        <v>0.2025975825099672</v>
       </c>
       <c r="C49">
-        <v>-0.2108443291266227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01809810316785433</v>
+      </c>
+      <c r="D49">
+        <v>0.01193417968606439</v>
+      </c>
+      <c r="E49">
+        <v>0.03221585053526525</v>
+      </c>
+      <c r="F49">
+        <v>0.02966952946048679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02082076438144438</v>
+        <v>0.04921495247554263</v>
       </c>
       <c r="C50">
-        <v>-0.03952052522378172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.0111439909252778</v>
+      </c>
+      <c r="D50">
+        <v>-0.02499156642320825</v>
+      </c>
+      <c r="E50">
+        <v>0.02984953430381803</v>
+      </c>
+      <c r="F50">
+        <v>0.006714114898487933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.001133099544900586</v>
+        <v>0.002237745078292559</v>
       </c>
       <c r="C51">
-        <v>-0.007631741905241537</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0005719688027454958</v>
+      </c>
+      <c r="D51">
+        <v>0.002360587609592687</v>
+      </c>
+      <c r="E51">
+        <v>-4.70775721309515e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.003857387434723757</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03461946329261329</v>
+        <v>0.1448692669161106</v>
       </c>
       <c r="C52">
-        <v>-0.1374666035190081</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01413173266764626</v>
+      </c>
+      <c r="D52">
+        <v>-0.04870975923633762</v>
+      </c>
+      <c r="E52">
+        <v>0.02403618526648158</v>
+      </c>
+      <c r="F52">
+        <v>0.04090616128094639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03491618916380963</v>
+        <v>0.1733771690829833</v>
       </c>
       <c r="C53">
-        <v>-0.1542801298786704</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01744971244830511</v>
+      </c>
+      <c r="D53">
+        <v>-0.00682963120889993</v>
+      </c>
+      <c r="E53">
+        <v>0.03502273110575117</v>
+      </c>
+      <c r="F53">
+        <v>0.07371215391870224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01472754636118078</v>
+        <v>0.02208068956430042</v>
       </c>
       <c r="C54">
-        <v>-0.04964089235760864</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01239481357970802</v>
+      </c>
+      <c r="D54">
+        <v>-0.03268801537020077</v>
+      </c>
+      <c r="E54">
+        <v>0.01567575564660867</v>
+      </c>
+      <c r="F54">
+        <v>-0.004695457904542557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02682765895312388</v>
+        <v>0.1142079263899148</v>
       </c>
       <c r="C55">
-        <v>-0.08725924091496071</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01576326316139817</v>
+      </c>
+      <c r="D55">
+        <v>-0.0103009762461288</v>
+      </c>
+      <c r="E55">
+        <v>0.03069887398560212</v>
+      </c>
+      <c r="F55">
+        <v>0.0464744928845927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03881240163027065</v>
+        <v>0.1773204310532241</v>
       </c>
       <c r="C56">
-        <v>-0.1556810968997971</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01477303492879294</v>
+      </c>
+      <c r="D56">
+        <v>-0.004617214582974313</v>
+      </c>
+      <c r="E56">
+        <v>0.04106207990971764</v>
+      </c>
+      <c r="F56">
+        <v>0.0513578327998249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01445564665716337</v>
+        <v>0.04666674019241507</v>
       </c>
       <c r="C58">
-        <v>-0.04079195132170641</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001139254225129686</v>
+      </c>
+      <c r="D58">
+        <v>-0.06708150972446802</v>
+      </c>
+      <c r="E58">
+        <v>0.02522246335137446</v>
+      </c>
+      <c r="F58">
+        <v>-0.04137112754383551</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01285327910608986</v>
+        <v>0.1714877347415757</v>
       </c>
       <c r="C59">
-        <v>-0.1096337446165773</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01861131069930952</v>
+      </c>
+      <c r="D59">
+        <v>0.2215510002058688</v>
+      </c>
+      <c r="E59">
+        <v>-0.04845237838843985</v>
+      </c>
+      <c r="F59">
+        <v>-0.03250690533372666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.04005093987492655</v>
+        <v>0.2346963226351381</v>
       </c>
       <c r="C60">
-        <v>-0.2743283773147007</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.003629071268938149</v>
+      </c>
+      <c r="D60">
+        <v>-0.04033216845669847</v>
+      </c>
+      <c r="E60">
+        <v>0.01241026592171382</v>
+      </c>
+      <c r="F60">
+        <v>-0.01702430775419891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03162674203691539</v>
+        <v>0.082921929565051</v>
       </c>
       <c r="C61">
-        <v>-0.1239640379470912</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01229219254698357</v>
+      </c>
+      <c r="D61">
+        <v>-0.1163518365908652</v>
+      </c>
+      <c r="E61">
+        <v>0.04009525475486605</v>
+      </c>
+      <c r="F61">
+        <v>0.008269394879111132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.04296676721841335</v>
+        <v>0.1693499188222841</v>
       </c>
       <c r="C62">
-        <v>-0.1631520324009272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01840480671707883</v>
+      </c>
+      <c r="D62">
+        <v>-0.01001047169407623</v>
+      </c>
+      <c r="E62">
+        <v>0.03773287880727949</v>
+      </c>
+      <c r="F62">
+        <v>0.03392866703060791</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0133606590180031</v>
+        <v>0.04341893457930174</v>
       </c>
       <c r="C63">
-        <v>-0.05474587238786842</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002407362687719938</v>
+      </c>
+      <c r="D63">
+        <v>-0.05688388913351854</v>
+      </c>
+      <c r="E63">
+        <v>0.0206242421139329</v>
+      </c>
+      <c r="F63">
+        <v>0.004796152554460522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02553816177603911</v>
+        <v>0.1104402980995432</v>
       </c>
       <c r="C64">
-        <v>-0.09632090741040783</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01131387478785976</v>
+      </c>
+      <c r="D64">
+        <v>-0.04211112759472715</v>
+      </c>
+      <c r="E64">
+        <v>0.02155285201817693</v>
+      </c>
+      <c r="F64">
+        <v>0.02864225579732597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04660178615285993</v>
+        <v>0.1474043404916017</v>
       </c>
       <c r="C65">
-        <v>-0.1089138241859883</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03165453214664202</v>
+      </c>
+      <c r="D65">
+        <v>0.04146265211418741</v>
+      </c>
+      <c r="E65">
+        <v>0.001136013139087314</v>
+      </c>
+      <c r="F65">
+        <v>0.04577309624743092</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04489893417607683</v>
+        <v>0.1276893571664726</v>
       </c>
       <c r="C66">
-        <v>-0.1964625288447272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01431519834551241</v>
+      </c>
+      <c r="D66">
+        <v>-0.1421873133161093</v>
+      </c>
+      <c r="E66">
+        <v>0.06882816810037291</v>
+      </c>
+      <c r="F66">
+        <v>0.02691064707851164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01564188155243294</v>
+        <v>0.06323880119286021</v>
       </c>
       <c r="C67">
-        <v>-0.07157638011467052</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.002804582642772678</v>
+      </c>
+      <c r="D67">
+        <v>-0.05585352474762161</v>
+      </c>
+      <c r="E67">
+        <v>0.01675442602598482</v>
+      </c>
+      <c r="F67">
+        <v>-0.03943557623179864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01597239276698265</v>
+        <v>0.1172315572015236</v>
       </c>
       <c r="C68">
-        <v>-0.04041924706762717</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.02812767662922234</v>
+      </c>
+      <c r="D68">
+        <v>0.2592957184330731</v>
+      </c>
+      <c r="E68">
+        <v>-0.08711225749019007</v>
+      </c>
+      <c r="F68">
+        <v>0.01621289197931363</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.009732601087333981</v>
+        <v>0.03916099884323457</v>
       </c>
       <c r="C69">
-        <v>-0.03220292456628991</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.0009285564102560067</v>
+      </c>
+      <c r="D69">
+        <v>-0.008314626213865408</v>
+      </c>
+      <c r="E69">
+        <v>0.02368855368518365</v>
+      </c>
+      <c r="F69">
+        <v>-0.005556205130362574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001268340574716337</v>
+        <v>0.06276978187671016</v>
       </c>
       <c r="C70">
-        <v>-0.03472650993007021</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02873099749329474</v>
+      </c>
+      <c r="D70">
+        <v>-0.0290978992311747</v>
+      </c>
+      <c r="E70">
+        <v>-0.04904311256163234</v>
+      </c>
+      <c r="F70">
+        <v>-0.2262016489253435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02039520743238571</v>
+        <v>0.1365357916991843</v>
       </c>
       <c r="C71">
-        <v>-0.04796418583952645</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03277441443792071</v>
+      </c>
+      <c r="D71">
+        <v>0.2731369748873256</v>
+      </c>
+      <c r="E71">
+        <v>-0.0966864977273343</v>
+      </c>
+      <c r="F71">
+        <v>0.02031924838182233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03976187987553254</v>
+        <v>0.141743423755873</v>
       </c>
       <c r="C72">
-        <v>-0.1237041841299663</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02525248941177826</v>
+      </c>
+      <c r="D72">
+        <v>-0.0006833688884041258</v>
+      </c>
+      <c r="E72">
+        <v>0.04184015909317797</v>
+      </c>
+      <c r="F72">
+        <v>0.03137339161906529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.04448217497604431</v>
+        <v>0.2009907236196857</v>
       </c>
       <c r="C73">
-        <v>-0.2104733215524311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01200394254579203</v>
+      </c>
+      <c r="D73">
+        <v>-0.01568446970990608</v>
+      </c>
+      <c r="E73">
+        <v>0.06622298293849688</v>
+      </c>
+      <c r="F73">
+        <v>0.02630091780072858</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02549032358916528</v>
+        <v>0.0944561667562154</v>
       </c>
       <c r="C74">
-        <v>-0.1118381631132363</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01246741363715516</v>
+      </c>
+      <c r="D74">
+        <v>-0.01902200135618277</v>
+      </c>
+      <c r="E74">
+        <v>0.04880890402269537</v>
+      </c>
+      <c r="F74">
+        <v>0.05227813345500118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04771916343696714</v>
+        <v>0.1284219313124576</v>
       </c>
       <c r="C75">
-        <v>-0.1314997287341979</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02688606386523494</v>
+      </c>
+      <c r="D75">
+        <v>-0.0322185273699622</v>
+      </c>
+      <c r="E75">
+        <v>0.06075365331754452</v>
+      </c>
+      <c r="F75">
+        <v>0.01745031038551801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.001158790637502651</v>
+        <v>0.002454229655859141</v>
       </c>
       <c r="C76">
-        <v>-0.009483620105806074</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0006289729717669961</v>
+      </c>
+      <c r="D76">
+        <v>0.001881395905519778</v>
+      </c>
+      <c r="E76">
+        <v>0.0002327714492593963</v>
+      </c>
+      <c r="F76">
+        <v>0.003422092215321749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02674058376353131</v>
+        <v>0.08027452483641621</v>
       </c>
       <c r="C77">
-        <v>-0.09600219915058235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008211803119113452</v>
+      </c>
+      <c r="D77">
+        <v>-0.1193448945962829</v>
+      </c>
+      <c r="E77">
+        <v>0.04187390788502007</v>
+      </c>
+      <c r="F77">
+        <v>0.0311675144066481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.06356336660753473</v>
+        <v>0.1032058407522024</v>
       </c>
       <c r="C78">
-        <v>-0.1106015800319508</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03957634773317827</v>
+      </c>
+      <c r="D78">
+        <v>-0.1147526812764746</v>
+      </c>
+      <c r="E78">
+        <v>0.07895059011564315</v>
+      </c>
+      <c r="F78">
+        <v>0.05688024674794731</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.04208424569529975</v>
+        <v>0.1640267228600508</v>
       </c>
       <c r="C79">
-        <v>-0.1406634738850043</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02097275597842656</v>
+      </c>
+      <c r="D79">
+        <v>-0.0187448415834301</v>
+      </c>
+      <c r="E79">
+        <v>0.04977554589203394</v>
+      </c>
+      <c r="F79">
+        <v>0.008558040290712122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.00575750919182515</v>
+        <v>0.08095788111110422</v>
       </c>
       <c r="C80">
-        <v>-0.0928691062949671</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.001106010446190223</v>
+      </c>
+      <c r="D80">
+        <v>-0.05766568199043685</v>
+      </c>
+      <c r="E80">
+        <v>0.03573999339004306</v>
+      </c>
+      <c r="F80">
+        <v>-0.03007700259877879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04676120068012588</v>
+        <v>0.1228089998838049</v>
       </c>
       <c r="C81">
-        <v>-0.1520709780323901</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03090129545939196</v>
+      </c>
+      <c r="D81">
+        <v>-0.01691393596175265</v>
+      </c>
+      <c r="E81">
+        <v>0.06009543289524926</v>
+      </c>
+      <c r="F81">
+        <v>0.0130017127882237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04188684053686673</v>
+        <v>0.1646384988423587</v>
       </c>
       <c r="C82">
-        <v>-0.1703870892491566</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02320304754678613</v>
+      </c>
+      <c r="D82">
+        <v>-0.006898705005198507</v>
+      </c>
+      <c r="E82">
+        <v>0.03387032127620852</v>
+      </c>
+      <c r="F82">
+        <v>0.07544081165357439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01677972922709754</v>
+        <v>0.06151217543198175</v>
       </c>
       <c r="C83">
-        <v>-0.07953744352394709</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.003150216538867635</v>
+      </c>
+      <c r="D83">
+        <v>-0.04945489050785228</v>
+      </c>
+      <c r="E83">
+        <v>0.004903128864550427</v>
+      </c>
+      <c r="F83">
+        <v>-0.03948797298210928</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02572522192345872</v>
+        <v>0.05836873915926304</v>
       </c>
       <c r="C84">
-        <v>-0.06897135197857993</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01088428984349244</v>
+      </c>
+      <c r="D84">
+        <v>-0.06535030431606599</v>
+      </c>
+      <c r="E84">
+        <v>0.00688348843744557</v>
+      </c>
+      <c r="F84">
+        <v>0.008545367343519303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.04190415526663015</v>
+        <v>0.1379761843481116</v>
       </c>
       <c r="C85">
-        <v>-0.1168746856683275</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02673301235377825</v>
+      </c>
+      <c r="D85">
+        <v>-0.01219818002911893</v>
+      </c>
+      <c r="E85">
+        <v>0.04150936548528227</v>
+      </c>
+      <c r="F85">
+        <v>0.04724115664152771</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.02184740416134936</v>
+        <v>0.09696973165940891</v>
       </c>
       <c r="C86">
-        <v>-0.1036581621666884</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.005945709810011333</v>
+      </c>
+      <c r="D86">
+        <v>-0.03830215725037434</v>
+      </c>
+      <c r="E86">
+        <v>0.1607382336366361</v>
+      </c>
+      <c r="F86">
+        <v>-0.9020740439113835</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.0465221072484211</v>
+        <v>0.09581097512206518</v>
       </c>
       <c r="C87">
-        <v>-0.1090175245262856</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02168447870403378</v>
+      </c>
+      <c r="D87">
+        <v>-0.0917503642449162</v>
+      </c>
+      <c r="E87">
+        <v>-0.05152515172822554</v>
+      </c>
+      <c r="F87">
+        <v>0.06714004691813444</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01524127227237622</v>
+        <v>0.06080257202172707</v>
       </c>
       <c r="C88">
-        <v>-0.05195281688197428</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.0024035128145936</v>
+      </c>
+      <c r="D88">
+        <v>-0.05048802681458482</v>
+      </c>
+      <c r="E88">
+        <v>0.0258086986024754</v>
+      </c>
+      <c r="F88">
+        <v>0.01082346417511594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.002400469708259937</v>
+        <v>0.134963803460596</v>
       </c>
       <c r="C89">
-        <v>-0.0819285527982144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01027712105141916</v>
+      </c>
+      <c r="D89">
+        <v>0.2513516728780333</v>
+      </c>
+      <c r="E89">
+        <v>-0.08965287166523445</v>
+      </c>
+      <c r="F89">
+        <v>0.002149602592384236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01977998021503205</v>
+        <v>0.1484741439969615</v>
       </c>
       <c r="C90">
-        <v>-0.05250498097545695</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02856709422470323</v>
+      </c>
+      <c r="D90">
+        <v>0.2655520628352839</v>
+      </c>
+      <c r="E90">
+        <v>-0.1114051130609893</v>
+      </c>
+      <c r="F90">
+        <v>0.007769186507047381</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02505745205978486</v>
+        <v>0.1195558384626638</v>
       </c>
       <c r="C91">
-        <v>-0.09223067598951114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01743955129274513</v>
+      </c>
+      <c r="D91">
+        <v>0.01025720366514961</v>
+      </c>
+      <c r="E91">
+        <v>0.05704613779312035</v>
+      </c>
+      <c r="F91">
+        <v>-0.009453065736004115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.001147189026971142</v>
+        <v>0.1484389543870884</v>
       </c>
       <c r="C92">
-        <v>-0.07213960573143749</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02059112182342756</v>
+      </c>
+      <c r="D92">
+        <v>0.2915089405195161</v>
+      </c>
+      <c r="E92">
+        <v>-0.1044704956696146</v>
+      </c>
+      <c r="F92">
+        <v>-0.0008970068949801734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01441262831102103</v>
+        <v>0.1516524189740857</v>
       </c>
       <c r="C93">
-        <v>-0.05939276313962467</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02460540221662712</v>
+      </c>
+      <c r="D93">
+        <v>0.2653647649126273</v>
+      </c>
+      <c r="E93">
+        <v>-0.07794086738407972</v>
+      </c>
+      <c r="F93">
+        <v>0.008837709214319804</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04913681305658052</v>
+        <v>0.1318488899684346</v>
       </c>
       <c r="C94">
-        <v>-0.1548072049533773</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02395450119786936</v>
+      </c>
+      <c r="D94">
+        <v>-0.04427639270190607</v>
+      </c>
+      <c r="E94">
+        <v>0.06043283182098727</v>
+      </c>
+      <c r="F94">
+        <v>0.03417127033727312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.04043658226271205</v>
+        <v>0.125728979391536</v>
       </c>
       <c r="C95">
-        <v>-0.1278399558072612</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004415963207005815</v>
+      </c>
+      <c r="D95">
+        <v>-0.09259223248558311</v>
+      </c>
+      <c r="E95">
+        <v>0.04768371021074774</v>
+      </c>
+      <c r="F95">
+        <v>-0.01207229804781525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.96740248304231</v>
+        <v>0.1007523982853952</v>
       </c>
       <c r="C96">
-        <v>-0.2342682602735967</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9884386564154334</v>
+      </c>
+      <c r="D96">
+        <v>0.03891141651879982</v>
+      </c>
+      <c r="E96">
+        <v>0.05805276577042469</v>
+      </c>
+      <c r="F96">
+        <v>0.04203215511320143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.01748596574157451</v>
+        <v>0.1900490624350631</v>
       </c>
       <c r="C97">
-        <v>-0.1753294459957933</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.009572390171451192</v>
+      </c>
+      <c r="D97">
+        <v>0.01724837195282947</v>
+      </c>
+      <c r="E97">
+        <v>0.01151624434691417</v>
+      </c>
+      <c r="F97">
+        <v>-0.09844453066497005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.03619862874902793</v>
+        <v>0.2063250213430576</v>
       </c>
       <c r="C98">
-        <v>-0.2075298643994337</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007292502907664877</v>
+      </c>
+      <c r="D98">
+        <v>-0.006197060102661155</v>
+      </c>
+      <c r="E98">
+        <v>-0.09251586717985523</v>
+      </c>
+      <c r="F98">
+        <v>-0.09509230716071067</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003551482497793613</v>
+        <v>0.05576210062844333</v>
       </c>
       <c r="C99">
-        <v>-0.0518395118771849</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004549099602428901</v>
+      </c>
+      <c r="D99">
+        <v>-0.03790959306299288</v>
+      </c>
+      <c r="E99">
+        <v>0.02349694121571786</v>
+      </c>
+      <c r="F99">
+        <v>-0.001889337574092725</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.002585926021515529</v>
+        <v>0.1240100660960725</v>
       </c>
       <c r="C100">
-        <v>-0.137920391758438</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05317726490457646</v>
+      </c>
+      <c r="D100">
+        <v>-0.3495664847871662</v>
+      </c>
+      <c r="E100">
+        <v>-0.8937434031593462</v>
+      </c>
+      <c r="F100">
+        <v>-0.08447936388060057</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01573634826097751</v>
+        <v>0.02650749180066374</v>
       </c>
       <c r="C101">
-        <v>-0.02768444355469159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008120496094817509</v>
+      </c>
+      <c r="D101">
+        <v>-0.03278541245195653</v>
+      </c>
+      <c r="E101">
+        <v>0.01017420827652873</v>
+      </c>
+      <c r="F101">
+        <v>-0.01490723775380124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
